--- a/biology/Zoologie/Datnioididae/Datnioididae.xlsx
+++ b/biology/Zoologie/Datnioididae/Datnioididae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Datnioididae sont une famille de poissons de l'ordre des Perciformes représentée par un seul genre et cinq espèces.
 Toutes ces espèces vivent en eau douce et certaines peuvent également se rencontrer en eau saumâtre.
@@ -512,7 +524,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Datnioides Bleeker, 1853</t>
         </is>
@@ -542,12 +556,14 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Datnioides campbelli
-Datnioides microlepis ou Perche-tigre ; poisson d'eau douce carnivore de 40 cm ; Thaïlande, Cambodge, Bornéo et Sumatra[2]
+Datnioides microlepis ou Perche-tigre ; poisson d'eau douce carnivore de 40 cm ; Thaïlande, Cambodge, Bornéo et Sumatra
 Datnioides pulcher ou Perche-tigre siamoise
-Datnioides quadrifasciatus ou Datnioides polota ; poisson d'eau douce et saumâtre carnivore de 30 cm ; du Gange (Inde) à l'Indonésie via la Birmanie, la Thaïlande et la Malaisie[3]
+Datnioides quadrifasciatus ou Datnioides polota ; poisson d'eau douce et saumâtre carnivore de 30 cm ; du Gange (Inde) à l'Indonésie via la Birmanie, la Thaïlande et la Malaisie
 Datnioides undecimradiatus
 	Datnioididae
 			Datnioides campbelli
@@ -582,7 +598,9 @@
           <t>Aquariophilie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Certaines espèces sont proposées dans les magasins d'aquariophilie.
 </t>
